--- a/r1344a.xlsx
+++ b/r1344a.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16260" windowHeight="7968" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16260" windowHeight="7968"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Temp</t>
   </si>
@@ -466,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,753 +529,6 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2">
-        <v>571.70000000000005</v>
-      </c>
-      <c r="C3" s="2">
-        <v>8.1610000000000005E-4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>79.319999999999993</v>
-      </c>
-      <c r="F3" s="2">
-        <v>182.26</v>
-      </c>
-      <c r="G3" s="2">
-        <v>261.60000000000002</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.30059999999999998</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.62180000000000002</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.9224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2">
-        <v>645.79999999999995</v>
-      </c>
-      <c r="C4" s="2">
-        <v>8.2609999999999997E-4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>84.98</v>
-      </c>
-      <c r="F4" s="2">
-        <v>178.7</v>
-      </c>
-      <c r="G4" s="2">
-        <v>263.68</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.3196</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.60140000000000005</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.92100000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2">
-        <v>685.4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>8.3129999999999999E-4</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="E5" s="2">
-        <v>87.83</v>
-      </c>
-      <c r="F5" s="2">
-        <v>176.87</v>
-      </c>
-      <c r="G5" s="2">
-        <v>264.7</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.59119999999999995</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.92030000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2">
-        <v>726.9</v>
-      </c>
-      <c r="C6" s="2">
-        <v>8.3670000000000001E-4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2.8299999999999999E-2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>90.7</v>
-      </c>
-      <c r="F6" s="2">
-        <v>175</v>
-      </c>
-      <c r="G6" s="2">
-        <v>265.69</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.33850000000000002</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.58109999999999995</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.91959999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2">
-        <v>770.2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8.4210000000000003E-4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2.6599999999999999E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>93.58</v>
-      </c>
-      <c r="F7" s="2">
-        <v>173.09</v>
-      </c>
-      <c r="G7" s="2">
-        <v>266.67</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.34789999999999999</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.91890000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2">
-        <v>815.4</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8.4780000000000001E-4</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2.5100000000000001E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>96.48</v>
-      </c>
-      <c r="F8" s="2">
-        <v>171.16</v>
-      </c>
-      <c r="G8" s="2">
-        <v>267.64</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.35730000000000001</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.56089999999999995</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.91820000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>34</v>
-      </c>
-      <c r="B9" s="2">
-        <v>862.6</v>
-      </c>
-      <c r="C9" s="2">
-        <v>8.5360000000000004E-4</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2.3699999999999999E-2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>99.4</v>
-      </c>
-      <c r="F9" s="2">
-        <v>169.18</v>
-      </c>
-      <c r="G9" s="2">
-        <v>268.58</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.36670000000000003</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.55079999999999996</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.91749999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>36</v>
-      </c>
-      <c r="B10" s="2">
-        <v>911.9</v>
-      </c>
-      <c r="C10" s="2">
-        <v>8.5950000000000002E-4</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2.24E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>102.33</v>
-      </c>
-      <c r="F10" s="2">
-        <v>167.17</v>
-      </c>
-      <c r="G10" s="2">
-        <v>269.5</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.37609999999999999</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.54069999999999996</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.91679999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>38</v>
-      </c>
-      <c r="B11" s="2">
-        <v>963.2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>8.6569999999999995E-4</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2.1100000000000001E-2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>105.29</v>
-      </c>
-      <c r="F11" s="2">
-        <v>165.12</v>
-      </c>
-      <c r="G11" s="2">
-        <v>270.41000000000003</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.38550000000000001</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.53069999999999995</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.91620000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>40</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1016.6</v>
-      </c>
-      <c r="C12" s="2">
-        <v>8.7200000000000005E-4</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="E12" s="2">
-        <v>108.27</v>
-      </c>
-      <c r="F12" s="2">
-        <v>163.01</v>
-      </c>
-      <c r="G12" s="2">
-        <v>271.27999999999997</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.39489999999999997</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.52059999999999995</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.91549999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>42</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1072.2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>8.786E-4</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.89E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>111.26</v>
-      </c>
-      <c r="F13" s="2">
-        <v>160.88</v>
-      </c>
-      <c r="G13" s="2">
-        <v>272.14</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.40429999999999999</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.51049999999999995</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.91469999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>44</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1130.0999999999999</v>
-      </c>
-      <c r="C14" s="2">
-        <v>8.8540000000000005E-4</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1.78E-2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>114.28</v>
-      </c>
-      <c r="F14" s="2">
-        <v>158.69</v>
-      </c>
-      <c r="G14" s="2">
-        <v>272.97000000000003</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.41360000000000002</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.50039999999999996</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0.91400000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>48</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1252.9000000000001</v>
-      </c>
-      <c r="C15" s="2">
-        <v>8.9970000000000002E-4</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1.6E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>120.39</v>
-      </c>
-      <c r="F15" s="2">
-        <v>154.16</v>
-      </c>
-      <c r="G15" s="2">
-        <v>274.55</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.43240000000000001</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0.91249999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>52</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1385.4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>9.1500000000000001E-4</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1.43E-2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>126.6</v>
-      </c>
-      <c r="F16" s="2">
-        <v>149.41</v>
-      </c>
-      <c r="G16" s="2">
-        <v>276.01</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.45129999999999998</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.45950000000000002</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.91080000000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>56</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1528.2</v>
-      </c>
-      <c r="C17" s="2">
-        <v>9.3170000000000004E-4</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>132.91999999999999</v>
-      </c>
-      <c r="F17" s="2">
-        <v>144.4</v>
-      </c>
-      <c r="G17" s="2">
-        <v>277.32</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.47020000000000001</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.43869999999999998</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0.90890000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>60</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1681.8</v>
-      </c>
-      <c r="C18" s="2">
-        <v>9.4979999999999999E-4</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1.14E-2</v>
-      </c>
-      <c r="E18" s="2">
-        <v>139.36000000000001</v>
-      </c>
-      <c r="F18" s="2">
-        <v>139.13</v>
-      </c>
-      <c r="G18" s="2">
-        <v>278.49</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.48920000000000002</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.41760000000000003</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.90680000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>70</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2116.8000000000002</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1.0038E-3</v>
-      </c>
-      <c r="D19" s="2">
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="E19" s="2">
-        <v>156.13999999999999</v>
-      </c>
-      <c r="F19" s="2">
-        <v>124.37</v>
-      </c>
-      <c r="G19" s="2">
-        <v>280.51</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.53759999999999997</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.3624</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>80</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2633.2</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1.0773E-3</v>
-      </c>
-      <c r="D20" s="2">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="E20" s="2">
-        <v>174.25</v>
-      </c>
-      <c r="F20" s="2">
-        <v>106.42</v>
-      </c>
-      <c r="G20" s="2">
-        <v>280.67</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.3014</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0.88939999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>90</v>
-      </c>
-      <c r="B21" s="2">
-        <v>3244.2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1.1936E-3</v>
-      </c>
-      <c r="D21" s="2">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="E21" s="2">
-        <v>194.78</v>
-      </c>
-      <c r="F21" s="2">
-        <v>82.49</v>
-      </c>
-      <c r="G21" s="2">
-        <v>277.27</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.64339999999999997</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.22720000000000001</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0.87060000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>100</v>
-      </c>
-      <c r="B22" s="2">
-        <v>3972.4</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1.5357000000000001E-3</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="E22" s="2">
-        <v>225.15</v>
-      </c>
-      <c r="F22" s="2">
-        <v>34.39</v>
-      </c>
-      <c r="G22" s="2">
-        <v>259.54000000000002</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.72319999999999995</v>
-      </c>
-      <c r="I22" s="2">
-        <v>9.2100000000000001E-2</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0.81530000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>101.06</v>
-      </c>
-      <c r="B23" s="2">
-        <v>4059.1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1.9534999999999999E-3</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="E23" s="2">
-        <v>241.49</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>241.49</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.76649999999999996</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0.76649999999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
         <v>-40</v>
       </c>
       <c r="B3" s="2">
@@ -2073,6 +1325,646 @@
       </c>
       <c r="J27" s="2">
         <v>0.9224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2">
+        <v>645.79999999999995</v>
+      </c>
+      <c r="C28" s="2">
+        <v>8.2609999999999997E-4</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>84.98</v>
+      </c>
+      <c r="F28" s="2">
+        <v>178.7</v>
+      </c>
+      <c r="G28" s="2">
+        <v>263.68</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.3196</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.60140000000000005</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2">
+        <v>685.4</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8.3129999999999999E-4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E29" s="2">
+        <v>87.83</v>
+      </c>
+      <c r="F29" s="2">
+        <v>176.87</v>
+      </c>
+      <c r="G29" s="2">
+        <v>264.7</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.59119999999999995</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.92030000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>726.9</v>
+      </c>
+      <c r="C30" s="2">
+        <v>8.3670000000000001E-4</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>90.7</v>
+      </c>
+      <c r="F30" s="2">
+        <v>175</v>
+      </c>
+      <c r="G30" s="2">
+        <v>265.69</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.33850000000000002</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.58109999999999995</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.91959999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>770.2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>8.4210000000000003E-4</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>93.58</v>
+      </c>
+      <c r="F31" s="2">
+        <v>173.09</v>
+      </c>
+      <c r="G31" s="2">
+        <v>266.67</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.91890000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2">
+        <v>815.4</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8.4780000000000001E-4</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>96.48</v>
+      </c>
+      <c r="F32" s="2">
+        <v>171.16</v>
+      </c>
+      <c r="G32" s="2">
+        <v>267.64</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.56089999999999995</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.91820000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>34</v>
+      </c>
+      <c r="B33" s="2">
+        <v>862.6</v>
+      </c>
+      <c r="C33" s="2">
+        <v>8.5360000000000004E-4</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>99.4</v>
+      </c>
+      <c r="F33" s="2">
+        <v>169.18</v>
+      </c>
+      <c r="G33" s="2">
+        <v>268.58</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.36670000000000003</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.55079999999999996</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.91749999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>36</v>
+      </c>
+      <c r="B34" s="2">
+        <v>911.9</v>
+      </c>
+      <c r="C34" s="2">
+        <v>8.5950000000000002E-4</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2.24E-2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>102.33</v>
+      </c>
+      <c r="F34" s="2">
+        <v>167.17</v>
+      </c>
+      <c r="G34" s="2">
+        <v>269.5</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.37609999999999999</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.54069999999999996</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.91679999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2">
+        <v>963.2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>8.6569999999999995E-4</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>105.29</v>
+      </c>
+      <c r="F35" s="2">
+        <v>165.12</v>
+      </c>
+      <c r="G35" s="2">
+        <v>270.41000000000003</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.53069999999999995</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.91620000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>40</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1016.6</v>
+      </c>
+      <c r="C36" s="2">
+        <v>8.7200000000000005E-4</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E36" s="2">
+        <v>108.27</v>
+      </c>
+      <c r="F36" s="2">
+        <v>163.01</v>
+      </c>
+      <c r="G36" s="2">
+        <v>271.27999999999997</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.39489999999999997</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.52059999999999995</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.91549999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>42</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1072.2</v>
+      </c>
+      <c r="C37" s="2">
+        <v>8.786E-4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1.89E-2</v>
+      </c>
+      <c r="E37" s="2">
+        <v>111.26</v>
+      </c>
+      <c r="F37" s="2">
+        <v>160.88</v>
+      </c>
+      <c r="G37" s="2">
+        <v>272.14</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.40429999999999999</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.51049999999999995</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.91469999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>44</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1130.0999999999999</v>
+      </c>
+      <c r="C38" s="2">
+        <v>8.8540000000000005E-4</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1.78E-2</v>
+      </c>
+      <c r="E38" s="2">
+        <v>114.28</v>
+      </c>
+      <c r="F38" s="2">
+        <v>158.69</v>
+      </c>
+      <c r="G38" s="2">
+        <v>272.97000000000003</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.41360000000000002</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.50039999999999996</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>48</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1252.9000000000001</v>
+      </c>
+      <c r="C39" s="2">
+        <v>8.9970000000000002E-4</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E39" s="2">
+        <v>120.39</v>
+      </c>
+      <c r="F39" s="2">
+        <v>154.16</v>
+      </c>
+      <c r="G39" s="2">
+        <v>274.55</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.43240000000000001</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.91249999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>52</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1385.4</v>
+      </c>
+      <c r="C40" s="2">
+        <v>9.1500000000000001E-4</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.43E-2</v>
+      </c>
+      <c r="E40" s="2">
+        <v>126.6</v>
+      </c>
+      <c r="F40" s="2">
+        <v>149.41</v>
+      </c>
+      <c r="G40" s="2">
+        <v>276.01</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.45129999999999998</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.45950000000000002</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.91080000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>56</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1528.2</v>
+      </c>
+      <c r="C41" s="2">
+        <v>9.3170000000000004E-4</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="E41" s="2">
+        <v>132.91999999999999</v>
+      </c>
+      <c r="F41" s="2">
+        <v>144.4</v>
+      </c>
+      <c r="G41" s="2">
+        <v>277.32</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.47020000000000001</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.43869999999999998</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.90890000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1681.8</v>
+      </c>
+      <c r="C42" s="2">
+        <v>9.4979999999999999E-4</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1.14E-2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>139.36000000000001</v>
+      </c>
+      <c r="F42" s="2">
+        <v>139.13</v>
+      </c>
+      <c r="G42" s="2">
+        <v>278.49</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.48920000000000002</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.41760000000000003</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.90680000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>70</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2116.8000000000002</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1.0038E-3</v>
+      </c>
+      <c r="D43" s="2">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="E43" s="2">
+        <v>156.13999999999999</v>
+      </c>
+      <c r="F43" s="2">
+        <v>124.37</v>
+      </c>
+      <c r="G43" s="2">
+        <v>280.51</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.53759999999999997</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0.3624</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>80</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2633.2</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1.0773E-3</v>
+      </c>
+      <c r="D44" s="2">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="E44" s="2">
+        <v>174.25</v>
+      </c>
+      <c r="F44" s="2">
+        <v>106.42</v>
+      </c>
+      <c r="G44" s="2">
+        <v>280.67</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0.3014</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0.88939999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>90</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3244.2</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1.1936E-3</v>
+      </c>
+      <c r="D45" s="2">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="E45" s="2">
+        <v>194.78</v>
+      </c>
+      <c r="F45" s="2">
+        <v>82.49</v>
+      </c>
+      <c r="G45" s="2">
+        <v>277.27</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.64339999999999997</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.22720000000000001</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.87060000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>100</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3972.4</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1.5357000000000001E-3</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="E46" s="2">
+        <v>225.15</v>
+      </c>
+      <c r="F46" s="2">
+        <v>34.39</v>
+      </c>
+      <c r="G46" s="2">
+        <v>259.54000000000002</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.72319999999999995</v>
+      </c>
+      <c r="I46" s="2">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.81530000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>101.06</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4059.1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1.9534999999999999E-3</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="E47" s="2">
+        <v>241.49</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>241.49</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.76649999999999996</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.76649999999999996</v>
       </c>
     </row>
   </sheetData>
